--- a/files/xlsx/多模态模型.xlsx
+++ b/files/xlsx/多模态模型.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t xml:space="preserve">Qwen2.5 VL 32B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mistral Small3.1 24b</t>
   </si>
   <si>
     <t xml:space="preserve">Kimi VL 16b a3b</t>
@@ -218,7 +221,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -252,10 +255,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -522,7 +521,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.2734375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -594,7 +593,7 @@
         <v>96.7</v>
       </c>
       <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
+      <c r="G3" s="8"/>
       <c r="H3" s="8" t="n">
         <v>78.8</v>
       </c>
@@ -718,120 +717,144 @@
         <v>16</v>
       </c>
       <c r="B9" s="8" t="n">
-        <v>57</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8" t="n">
-        <v>867</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="D9" s="8" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="E9" s="8" t="n">
+        <v>94.1</v>
+      </c>
+      <c r="F9" s="8"/>
       <c r="G9" s="8" t="n">
-        <v>84.9</v>
+        <v>93.7</v>
       </c>
       <c r="H9" s="8" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="I9" s="8" t="n">
-        <v>21.4</v>
-      </c>
+        <v>68.9</v>
+      </c>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="8" t="n">
+        <v>57</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="n">
+        <v>867</v>
+      </c>
+      <c r="G10" s="8" t="n">
+        <v>84.9</v>
+      </c>
+      <c r="H10" s="8" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="I10" s="8" t="n">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8" t="n">
         <v>65.6</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8" t="n">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="n">
         <v>86.6</v>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="E11" s="8" t="n">
         <v>92.7</v>
       </c>
-      <c r="F10" s="8" t="n">
+      <c r="F11" s="8" t="n">
         <v>880</v>
       </c>
-      <c r="G10" s="8" t="n">
+      <c r="G11" s="8" t="n">
         <v>85.2</v>
       </c>
-      <c r="H10" s="8" t="n">
+      <c r="H11" s="8" t="n">
         <v>75.2</v>
       </c>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="8" t="n">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="8" t="n">
         <v>81.6</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="8" t="n">
-        <v>84.4</v>
-      </c>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="8" t="n">
-        <v>61.7</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
+      <c r="G13" s="8"/>
       <c r="H13" s="8" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="I13" s="8" t="n">
-        <v>36.8</v>
-      </c>
+        <v>84.4</v>
+      </c>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="8" t="n">
-        <v>73.6</v>
-      </c>
-      <c r="C14" s="8" t="n">
-        <v>52</v>
-      </c>
+        <v>61.7</v>
+      </c>
+      <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
+      <c r="G14" s="8"/>
       <c r="H14" s="8" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="I14" s="8" t="n">
+        <v>36.8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="8" t="n">
+        <v>73.6</v>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>52</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8" t="n">
         <v>74</v>
       </c>
-      <c r="I14" s="8" t="n">
+      <c r="I15" s="8" t="n">
         <v>49</v>
       </c>
     </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/files/xlsx/多模态模型.xlsx
+++ b/files/xlsx/多模态模型.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -76,7 +76,13 @@
     <t xml:space="preserve">Kimi VL 16b a3b</t>
   </si>
   <si>
+    <t xml:space="preserve">InternVL3 2B</t>
+  </si>
+  <si>
     <t xml:space="preserve">InternVL3 8B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InternVL3 14B</t>
   </si>
   <si>
     <t xml:space="preserve">推理模型</t>
@@ -521,7 +527,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.2734375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -765,45 +771,53 @@
         <v>18</v>
       </c>
       <c r="B11" s="8" t="n">
-        <v>65.6</v>
+        <v>48.6</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="8" t="n">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8" t="n">
+        <v>57</v>
+      </c>
+      <c r="I11" s="8" t="n">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="8" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="n">
         <v>86.6</v>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="E12" s="8" t="n">
         <v>92.7</v>
       </c>
-      <c r="F11" s="8" t="n">
+      <c r="F12" s="8" t="n">
         <v>880</v>
       </c>
-      <c r="G11" s="8" t="n">
+      <c r="G12" s="8" t="n">
         <v>85.2</v>
       </c>
-      <c r="H11" s="8" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="H12" s="8" t="n">
+        <v>71.6</v>
+      </c>
+      <c r="I12" s="8" t="n">
+        <v>29.3</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="8" t="n">
-        <v>81.6</v>
+        <v>67.1</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -811,52 +825,83 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="n">
-        <v>84.4</v>
-      </c>
-      <c r="I13" s="8"/>
+        <v>75.1</v>
+      </c>
+      <c r="I13" s="8" t="n">
+        <v>37.2</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="8" t="n">
-        <v>61.7</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="I14" s="8" t="n">
-        <v>36.8</v>
-      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="8" t="n">
-        <v>73.6</v>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>52</v>
-      </c>
+        <v>81.6</v>
+      </c>
+      <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8" t="n">
+        <v>84.4</v>
+      </c>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="8" t="n">
+        <v>61.7</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="I16" s="8" t="n">
+        <v>36.8</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="8" t="n">
+        <v>73.6</v>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>52</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8" t="n">
         <v>74</v>
       </c>
-      <c r="I15" s="8" t="n">
+      <c r="I17" s="8" t="n">
         <v>49</v>
       </c>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/files/xlsx/多模态模型.xlsx
+++ b/files/xlsx/多模态模型.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -52,37 +52,16 @@
     <t xml:space="preserve">非推理模型</t>
   </si>
   <si>
-    <t xml:space="preserve">Doubao 1.5pro</t>
-  </si>
-  <si>
     <t xml:space="preserve">GPT4.1</t>
   </si>
   <si>
     <t xml:space="preserve">GPT4.1 Mini</t>
   </si>
   <si>
-    <t xml:space="preserve">Claude-3.5-Sonnet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gemini2.0 Flash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qwen2.5 VL 32B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mistral Small3.1 24b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kimi VL 16b a3b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InternVL3 2B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InternVL3 8B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InternVL3 14B</t>
+    <t xml:space="preserve">Claude-3.7-Sonnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gemini2.5 Pro</t>
   </si>
   <si>
     <t xml:space="preserve">推理模型</t>
@@ -91,10 +70,7 @@
     <t xml:space="preserve">OpenAI o4 mini</t>
   </si>
   <si>
-    <t xml:space="preserve">Kimi VL Thinking 16b a3b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skywork R1V2 38b</t>
+    <t xml:space="preserve">MiMo VL 7b RL</t>
   </si>
 </sst>
 </file>
@@ -527,7 +503,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.2734375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -589,19 +565,15 @@
         <v>10</v>
       </c>
       <c r="B3" s="8" t="n">
-        <v>73.8</v>
+        <v>75</v>
       </c>
       <c r="C3" s="8"/>
-      <c r="D3" s="8" t="n">
-        <v>88</v>
-      </c>
-      <c r="E3" s="8" t="n">
-        <v>96.7</v>
-      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8" t="n">
-        <v>78.8</v>
+        <v>72</v>
       </c>
       <c r="I3" s="8"/>
     </row>
@@ -610,7 +582,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -618,7 +590,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I4" s="8"/>
     </row>
@@ -627,280 +599,110 @@
         <v>12</v>
       </c>
       <c r="B5" s="8" t="n">
-        <v>73</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8" t="n">
-        <v>73</v>
-      </c>
+        <v>69.8</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>94.1</v>
+      </c>
+      <c r="F5" s="8" t="n">
+        <v>80.6</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <v>81.4</v>
+      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="8" t="n">
-        <v>72</v>
-      </c>
-      <c r="C6" s="8" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="D6" s="8" t="n">
-        <v>90.8</v>
-      </c>
-      <c r="E6" s="8" t="n">
-        <v>94.2</v>
-      </c>
-      <c r="F6" s="8" t="n">
-        <v>790</v>
-      </c>
-      <c r="G6" s="8" t="n">
-        <v>82</v>
-      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="8" t="n">
-        <v>65.4</v>
+        <v>80.9</v>
       </c>
       <c r="I6" s="8" t="n">
-        <v>38.3</v>
+        <v>69.8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="8" t="n">
-        <v>70.6</v>
-      </c>
-      <c r="C7" s="8" t="n">
-        <v>57</v>
-      </c>
-      <c r="D7" s="8" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="E7" s="8" t="n">
-        <v>92.9</v>
-      </c>
-      <c r="F7" s="8" t="n">
-        <v>846</v>
-      </c>
-      <c r="G7" s="8" t="n">
-        <v>85.1</v>
-      </c>
-      <c r="H7" s="8" t="n">
-        <v>73.1</v>
-      </c>
-      <c r="I7" s="8" t="n">
-        <v>41.3</v>
-      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="8" t="n">
-        <v>70</v>
-      </c>
-      <c r="C8" s="8" t="n">
-        <v>49.5</v>
-      </c>
+        <v>81.6</v>
+      </c>
+      <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="8" t="n">
-        <v>94.8</v>
-      </c>
+      <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="n">
-        <v>74.7</v>
+        <v>84.4</v>
       </c>
       <c r="I8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="8" t="n">
-        <v>64</v>
+        <v>66.7</v>
       </c>
       <c r="C9" s="8" t="n">
-        <v>49.3</v>
+        <v>46.2</v>
       </c>
       <c r="D9" s="8" t="n">
-        <v>86.2</v>
+        <v>91.7</v>
       </c>
       <c r="E9" s="8" t="n">
-        <v>94.1</v>
-      </c>
-      <c r="F9" s="8"/>
+        <v>95.7</v>
+      </c>
+      <c r="F9" s="8" t="n">
+        <v>86.6</v>
+      </c>
       <c r="G9" s="8" t="n">
-        <v>93.7</v>
+        <v>83.5</v>
       </c>
       <c r="H9" s="8" t="n">
-        <v>68.9</v>
-      </c>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="8" t="n">
-        <v>57</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8" t="n">
-        <v>867</v>
-      </c>
-      <c r="G10" s="8" t="n">
-        <v>84.9</v>
-      </c>
-      <c r="H10" s="8" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="I10" s="8" t="n">
-        <v>21.4</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="8" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="n">
-        <v>57</v>
-      </c>
-      <c r="I11" s="8" t="n">
-        <v>21.7</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="8" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8" t="n">
-        <v>86.6</v>
-      </c>
-      <c r="E12" s="8" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="F12" s="8" t="n">
-        <v>880</v>
-      </c>
-      <c r="G12" s="8" t="n">
-        <v>85.2</v>
-      </c>
-      <c r="H12" s="8" t="n">
-        <v>71.6</v>
-      </c>
-      <c r="I12" s="8" t="n">
-        <v>29.3</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="8" t="n">
-        <v>67.1</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="n">
-        <v>75.1</v>
-      </c>
-      <c r="I13" s="8" t="n">
-        <v>37.2</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="8" t="n">
-        <v>81.6</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8" t="n">
-        <v>84.4</v>
-      </c>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="8" t="n">
-        <v>61.7</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="I16" s="8" t="n">
-        <v>36.8</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="8" t="n">
-        <v>73.6</v>
-      </c>
-      <c r="C17" s="8" t="n">
-        <v>52</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8" t="n">
-        <v>74</v>
-      </c>
-      <c r="I17" s="8" t="n">
-        <v>49</v>
-      </c>
-    </row>
+        <v>81.5</v>
+      </c>
+      <c r="I9" s="8" t="n">
+        <v>60.4</v>
+      </c>
+    </row>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
